--- a/data/trans_camb/P16B15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 2,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 1,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 1,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 0,87</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,2%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 2,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 1,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 1,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 0,88</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 9,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 7,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 5,82</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 14,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 10,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 8,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 6,29</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 21,77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 18,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 13,8</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 27,83</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 22,05</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,01</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 3,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 2,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 2,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 2,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 2,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 1,62</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,3%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 4,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 2,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 2,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 2,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 2,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 1,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B15-Estudios-trans_camb.xlsx
@@ -639,22 +639,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,0</t>
+          <t>-2,35; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,0</t>
+          <t>-3,18; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,65</t>
+          <t>-0,33; 2,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,78</t>
+          <t>-1,3; 1,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,87</t>
+          <t>-1,25; 1,12</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,0</t>
+          <t>-2,35; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,0</t>
+          <t>-3,18; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,72</t>
+          <t>-0,33; 2,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,81</t>
+          <t>-1,31; 1,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,41</t>
+          <t>-0,58; 1,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 0,88</t>
+          <t>-1,26; 1,13</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,44</t>
+          <t>0,0; 13,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 9,27</t>
+          <t>-3,19; 10,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,01</t>
+          <t>0,0; 9,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,01</t>
+          <t>0,0; 9,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,68</t>
+          <t>0,81; 7,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,82</t>
+          <t>-1,04; 6,17</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,2</t>
+          <t>0,0; 14,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 10,39</t>
+          <t>-3,21; 11,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,12</t>
+          <t>0,0; 10,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,12</t>
+          <t>0,0; 10,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 8,31</t>
+          <t>0,81; 8,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 6,29</t>
+          <t>-1,05; 6,61</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,77</t>
+          <t>0,0; 20,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,06</t>
+          <t>0,0; 24,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,52</t>
+          <t>0,0; 15,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,8</t>
+          <t>0,0; 13,51</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,83</t>
+          <t>0,0; 25,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,05</t>
+          <t>0,0; 33,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,79</t>
+          <t>0,0; 19,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,01</t>
+          <t>0,0; 15,62</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,91</t>
+          <t>-0,14; 4,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,67</t>
+          <t>-1,98; 2,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,35</t>
+          <t>-0,16; 2,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,06</t>
+          <t>-0,74; 1,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,24</t>
+          <t>0,11; 2,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,62</t>
+          <t>-0,79; 1,65</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,07</t>
+          <t>-0,14; 4,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,77</t>
+          <t>-1,99; 2,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,41</t>
+          <t>-0,16; 2,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,11</t>
+          <t>-0,74; 1,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,29</t>
+          <t>0,11; 2,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,67</t>
+          <t>-0,8; 1,69</t>
         </is>
       </c>
     </row>
